--- a/Skill Portal.xlsx
+++ b/Skill Portal.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C59C71-CDE0-41FB-90D3-FD6FDD4AFB6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FFB54C3-4D78-4AE6-A0EC-D79E93CF6DAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" tabRatio="897" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="233">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -791,6 +791,15 @@
   </si>
   <si>
     <t>https://dzone.com/refcardz/spring-annotations?chapter=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. when there is class has @annotation  &amp; xml config which one will override &amp; consider for injecting ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.what will happen when the @componentscan ="" empty ? </t>
+  </si>
+  <si>
+    <t>16.@ImportResource("") loan beans from xml config file.</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C88A62D-9361-4F2B-B730-1C5717340DAC}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7503663F-257B-46E7-AF0F-FF7AA4F20516}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,6 +3150,21 @@
         <v>221</v>
       </c>
     </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="39" t="s">
         <v>226</v>
@@ -3163,9 +3187,10 @@
     <hyperlink ref="C90" r:id="rId8" xr:uid="{E0B27907-2DCF-420F-862F-0DB255E4AD02}"/>
     <hyperlink ref="B103" r:id="rId9" location="beans-annotation-config" xr:uid="{5FD06FFF-1056-4690-8D02-C0FA7BD056BE}"/>
     <hyperlink ref="B104" r:id="rId10" xr:uid="{3D17DF16-2BEA-4315-8D6A-F3CB4D617600}"/>
+    <hyperlink ref="B102" r:id="rId11" xr:uid="{D3E010CB-632B-4FCA-B5ED-80A4F3257865}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
